--- a/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_yyyy/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_yyyy/expected_result.xlsx
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B2" s="6" t="n">
-        <v>-42411.08</v>
+        <v>-38293.06</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>-42634.72</v>
+        <v>-31954.07</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>-85045.8</v>
+        <v>-70247.13</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>-33914.8</v>
+        <v>-38819.41</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>-32619.3</v>
+        <v>-38946.09</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-66534.10000000001</v>
+        <v>-77765.5</v>
       </c>
     </row>
     <row r="4">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B4" s="6" t="n">
-        <v>-15415.18</v>
+        <v>-15438.74</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>-13403.03</v>
+        <v>-15008.15</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-28818.21</v>
+        <v>-30446.89</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>-33280.63</v>
+        <v>-31167.05</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>-35929.17</v>
+        <v>-37792.51</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-69209.8</v>
+        <v>-68959.56</v>
       </c>
     </row>
     <row r="6">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>-11332.62</v>
+        <v>-16132.08</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>-17478.59</v>
+        <v>-18620.19</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-28811.21</v>
+        <v>-34752.27</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>-50171.63</v>
+        <v>-54028.1</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-51207.49</v>
+        <v>-73444.08</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-101379.12</v>
+        <v>-127472.18</v>
       </c>
     </row>
     <row r="8">
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="B8" s="6" t="n">
-        <v>-30160.03</v>
+        <v>-27644.43</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-22044.21</v>
+        <v>-29930.08</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-52204.24</v>
+        <v>-57574.51</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="B9" s="6" t="n">
-        <v>-20430.51</v>
+        <v>-15629.56</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-17959.24</v>
+        <v>-19907.67</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-38389.75</v>
+        <v>-35537.23</v>
       </c>
     </row>
     <row r="10">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>-237116.48</v>
+        <v>-237152.43</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>-233275.75</v>
+        <v>-265602.84</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>-470392.23</v>
+        <v>-502755.27</v>
       </c>
     </row>
   </sheetData>
